--- a/data/teacher/Renan.xlsx
+++ b/data/teacher/Renan.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Máquinas Elétricas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>MCT-3A-Máquinas Elétricas</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-3A-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NB-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Laboratório de Máquinas Elétricas']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NB-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Laboratório de Máquinas Elétricas']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NB-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Laboratório de Máquinas Elétricas']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-Elet. Digit. Básica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Laboratório de Máquinas Elétricas']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Renan.xlsx
+++ b/data/teacher/Renan.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MCT-3A-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCT-3A-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Máquinas Elétricas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Máquinas Elétricas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/data/teacher/Renan.xlsx
+++ b/data/teacher/Renan.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MCT-3A-Máquinas Elétricas</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCT-3A-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/data/teacher/Renan.xlsx
+++ b/data/teacher/Renan.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MCT-3A-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
